--- a/preprocessing/data/language_data/Karte1_inmigración_total_nacionalidad.xlsx
+++ b/preprocessing/data/language_data/Karte1_inmigración_total_nacionalidad.xlsx
@@ -1,30 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoselin/Dropbox/YOSI_MAPA del E en CH/Mapa del E en CH/1_población_hispana/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C045AAC4-1F87-B542-B094-FE286761E2F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{D846B658-5D0A-E341-98A0-0EB24755C701}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Einwanderung_new" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -33,90 +22,116 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Nacionalidad</t>
+    <t xml:space="preserve">Nacionalidad</t>
   </si>
   <si>
-    <t>Argentinien</t>
+    <t xml:space="preserve">Argentinien</t>
   </si>
   <si>
-    <t>Bolivien</t>
+    <t xml:space="preserve">Bolivien</t>
   </si>
   <si>
-    <t>Chile</t>
+    <t xml:space="preserve">Chile</t>
   </si>
   <si>
-    <t>Costa Rica</t>
+    <t xml:space="preserve">Costa Rica</t>
   </si>
   <si>
-    <t>Dominikanische Republik</t>
+    <t xml:space="preserve">Dominikanische Republik</t>
   </si>
   <si>
-    <t>Ecuador</t>
+    <t xml:space="preserve">Ecuador</t>
   </si>
   <si>
-    <t>El Salvador</t>
+    <t xml:space="preserve">El Salvador</t>
   </si>
   <si>
-    <t>Guatemala</t>
+    <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
-    <t>Honduras</t>
+    <t xml:space="preserve">Honduras</t>
   </si>
   <si>
-    <t>Kolumbien</t>
+    <t xml:space="preserve">Kolumbien</t>
   </si>
   <si>
-    <t>Kuba</t>
+    <t xml:space="preserve">Kuba</t>
   </si>
   <si>
-    <t>Mexiko</t>
+    <t xml:space="preserve">Mexiko</t>
   </si>
   <si>
-    <t>Nicaragua</t>
+    <t xml:space="preserve">Nicaragua</t>
   </si>
   <si>
-    <t>Panama</t>
+    <t xml:space="preserve">Panama</t>
   </si>
   <si>
-    <t>Paraguay</t>
+    <t xml:space="preserve">Paraguay</t>
   </si>
   <si>
-    <t>Peru</t>
+    <t xml:space="preserve">Peru</t>
   </si>
   <si>
-    <t>Spanien</t>
+    <t xml:space="preserve">Spanien</t>
   </si>
   <si>
-    <t>Uruguay</t>
+    <t xml:space="preserve">Uruguay</t>
   </si>
   <si>
-    <t>Venezuela</t>
+    <t xml:space="preserve">Venezuela</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#\ ###\ ##0\ ;\-#\ ###\ ##0\ ;0\ ;@\ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="#\ ###\ ##0\ ;\-#\ ###\ ##0\ ;0\ ;@\ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Helvetica"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,7 +143,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -136,2123 +151,1952 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="4">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard_T1" xfId="1" xr:uid="{D022165E-E1DD-1046-B68A-39C250A31AA0}"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Standard_T1" xfId="20"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009EBA79-2E81-4D4D-BEA5-92B05B061176}">
-  <dimension ref="A1:AC20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.828125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="X1">
+      <c r="X1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="Y1">
+      <c r="Y1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="Z1">
+      <c r="Z1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="AA1">
+      <c r="AA1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="AB1">
+      <c r="AB1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="AC1">
+      <c r="AC1" s="1" t="n">
         <v>2018</v>
       </c>
+      <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3" t="n">
         <v>357</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3" t="n">
         <v>270</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3" t="n">
         <v>247</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3" t="n">
         <v>195</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3" t="n">
         <v>195</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3" t="n">
         <v>175</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3" t="n">
         <v>167</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3" t="n">
         <v>171</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3" t="n">
         <v>210</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="3" t="n">
         <v>289</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="3" t="n">
         <v>437</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="3" t="n">
         <v>345</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="3" t="n">
         <v>259</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="3" t="n">
         <v>248</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="3" t="n">
         <v>236</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="3" t="n">
         <v>253</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="3" t="n">
         <v>331</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="3" t="n">
         <v>270</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="3" t="n">
         <v>252</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="3" t="n">
         <v>249</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="3" t="n">
         <v>252</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="3" t="n">
         <v>217</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="3" t="n">
         <v>270</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="3" t="n">
         <v>201</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="3" t="n">
         <v>207</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="3" t="n">
         <v>241</v>
       </c>
+      <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3" t="n">
         <v>79</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3" t="n">
         <v>76</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3" t="n">
         <v>86</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3" t="n">
         <v>71</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3" t="n">
         <v>91</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3" t="n">
         <v>97</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3" t="n">
         <v>89</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="3" t="n">
         <v>107</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="3" t="n">
         <v>140</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="3" t="n">
         <v>156</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="3" t="n">
         <v>147</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="3" t="n">
         <v>153</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="3" t="n">
         <v>156</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="3" t="n">
         <v>176</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="3" t="n">
         <v>208</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="3" t="n">
         <v>216</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="3" t="n">
         <v>252</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="3" t="n">
         <v>185</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="3" t="n">
         <v>148</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="3" t="n">
         <v>135</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="3" t="n">
         <v>117</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="3" t="n">
         <v>134</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="3" t="n">
         <v>156</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="3" t="n">
         <v>167</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3" s="3" t="n">
         <v>167</v>
       </c>
+      <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3" t="n">
         <v>487</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3" t="n">
         <v>379</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3" t="n">
         <v>272</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3" t="n">
         <v>238</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3" t="n">
         <v>202</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3" t="n">
         <v>190</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3" t="n">
         <v>186</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3" t="n">
         <v>167</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3" t="n">
         <v>219</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3" t="n">
         <v>240</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="3" t="n">
         <v>252</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="3" t="n">
         <v>227</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="3" t="n">
         <v>173</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="3" t="n">
         <v>201</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="3" t="n">
         <v>203</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="3" t="n">
         <v>178</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="3" t="n">
         <v>198</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="3" t="n">
         <v>288</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="3" t="n">
         <v>255</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="3" t="n">
         <v>183</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="3" t="n">
         <v>171</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="3" t="n">
         <v>199</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="3" t="n">
         <v>190</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="3" t="n">
         <v>184</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="3" t="n">
         <v>199</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="3" t="n">
         <v>178</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="3" t="n">
         <v>229</v>
       </c>
+      <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="3" t="n">
         <v>62</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="3" t="n">
         <v>66</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="3" t="n">
         <v>84</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="3" t="n">
         <v>75</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="3" t="n">
         <v>90</v>
       </c>
+      <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3" t="n">
         <v>275</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3" t="n">
         <v>555</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3" t="n">
         <v>694</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3" t="n">
         <v>659</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3" t="n">
         <v>741</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3" t="n">
         <v>631</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3" t="n">
         <v>562</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3" t="n">
         <v>565</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3" t="n">
         <v>511</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3" t="n">
         <v>548</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3" t="n">
         <v>636</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3" t="n">
         <v>701</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="3" t="n">
         <v>555</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="3" t="n">
         <v>473</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="3" t="n">
         <v>509</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="3" t="n">
         <v>442</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="3" t="n">
         <v>348</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="3" t="n">
         <v>438</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="3" t="n">
         <v>402</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="3" t="n">
         <v>416</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="3" t="n">
         <v>392</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="3" t="n">
         <v>392</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="3" t="n">
         <v>447</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="3" t="n">
         <v>336</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6" s="3" t="n">
         <v>393</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6" s="3" t="n">
         <v>341</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="3" t="n">
         <v>325</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6" s="3" t="n">
         <v>281</v>
       </c>
+      <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3" t="n">
         <v>77</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3" t="n">
         <v>108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3" t="n">
         <v>105</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3" t="n">
         <v>113</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3" t="n">
         <v>161</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3" t="n">
         <v>265</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="3" t="n">
         <v>243</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3" t="n">
         <v>314</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="3" t="n">
         <v>328</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="3" t="n">
         <v>298</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="3" t="n">
         <v>290</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="3" t="n">
         <v>276</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="3" t="n">
         <v>279</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="3" t="n">
         <v>295</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="3" t="n">
         <v>365</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="3" t="n">
         <v>278</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="3" t="n">
         <v>256</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="3" t="n">
         <v>290</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="3" t="n">
         <v>223</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="3" t="n">
         <v>228</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="3" t="n">
         <v>195</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AC7" s="3" t="n">
         <v>207</v>
       </c>
+      <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AC8" s="3" t="n">
         <v>32</v>
       </c>
+      <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="3" t="n">
         <v>66</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V9" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y9" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z9" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA9" s="3" t="n">
         <v>210</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AB9" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AC9" s="3" t="n">
         <v>33</v>
       </c>
+      <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y10" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="Z10" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AA10" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AB10" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AC10" s="3" t="n">
         <v>52</v>
       </c>
+      <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3" t="n">
         <v>323</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3" t="n">
         <v>337</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3" t="n">
         <v>346</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3" t="n">
         <v>312</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3" t="n">
         <v>362</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3" t="n">
         <v>353</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3" t="n">
         <v>431</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3" t="n">
         <v>434</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3" t="n">
         <v>617</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="3" t="n">
         <v>618</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="3" t="n">
         <v>629</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="3" t="n">
         <v>672</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="3" t="n">
         <v>591</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="3" t="n">
         <v>514</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="3" t="n">
         <v>435</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="3" t="n">
         <v>449</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="3" t="n">
         <v>477</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="3" t="n">
         <v>573</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="3" t="n">
         <v>522</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="3" t="n">
         <v>540</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11" s="3" t="n">
         <v>452</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11" s="3" t="n">
         <v>484</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="3" t="n">
         <v>511</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Y11" s="3" t="n">
         <v>460</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="Z11" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AA11" s="3" t="n">
         <v>447</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AB11" s="3" t="n">
         <v>541</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AC11" s="3" t="n">
         <v>505</v>
       </c>
+      <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3" t="n">
         <v>76</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3" t="n">
         <v>93</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3" t="n">
         <v>122</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3" t="n">
         <v>149</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3" t="n">
         <v>164</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="3" t="n">
         <v>229</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="3" t="n">
         <v>249</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="3" t="n">
         <v>270</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="3" t="n">
         <v>238</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="3" t="n">
         <v>257</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="3" t="n">
         <v>236</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="3" t="n">
         <v>205</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="3" t="n">
         <v>214</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="3" t="n">
         <v>231</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="3" t="n">
         <v>190</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="3" t="n">
         <v>174</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="3" t="n">
         <v>205</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V12" s="3" t="n">
         <v>167</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="3" t="n">
         <v>137</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12" s="3" t="n">
         <v>190</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y12" s="3" t="n">
         <v>140</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="Z12" s="3" t="n">
         <v>454</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AA12" s="3" t="n">
         <v>151</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AB12" s="3" t="n">
         <v>147</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AC12" s="3" t="n">
         <v>153</v>
       </c>
+      <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3" t="n">
         <v>295</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3" t="n">
         <v>351</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3" t="n">
         <v>243</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3" t="n">
         <v>307</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3" t="n">
         <v>257</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3" t="n">
         <v>268</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3" t="n">
         <v>269</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3" t="n">
         <v>306</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="3" t="n">
         <v>292</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="3" t="n">
         <v>327</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="3" t="n">
         <v>543</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="3" t="n">
         <v>520</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="3" t="n">
         <v>444</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="3" t="n">
         <v>489</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="3" t="n">
         <v>573</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="3" t="n">
         <v>512</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="3" t="n">
         <v>541</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="3" t="n">
         <v>585</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="3" t="n">
         <v>590</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="3" t="n">
         <v>674</v>
       </c>
-      <c r="V13" s="2">
+      <c r="V13" s="3" t="n">
         <v>578</v>
       </c>
-      <c r="W13" s="2">
+      <c r="W13" s="3" t="n">
         <v>558</v>
       </c>
-      <c r="X13" s="2">
+      <c r="X13" s="3" t="n">
         <v>562</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Y13" s="3" t="n">
         <v>619</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="Z13" s="3" t="n">
         <v>161</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AA13" s="3" t="n">
         <v>555</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AB13" s="3" t="n">
         <v>601</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AC13" s="3" t="n">
         <v>561</v>
       </c>
+      <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="V14" s="2">
+      <c r="V14" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="W14" s="2">
+      <c r="W14" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Y14" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="Z14" s="3" t="n">
         <v>557</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AA14" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AB14" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AC14" s="3" t="n">
         <v>69</v>
       </c>
+      <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="3" t="n">
         <v>66</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="3" t="n">
         <v>135</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="V15" s="2">
+      <c r="V15" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="W15" s="2">
+      <c r="W15" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="X15" s="2">
+      <c r="X15" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="Y15" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="Z15" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AA15" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AB15" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AC15" s="3" t="n">
         <v>31</v>
       </c>
+      <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="3" t="n">
         <v>71</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="V16" s="2">
+      <c r="V16" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="W16" s="2">
+      <c r="W16" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="X16" s="2">
+      <c r="X16" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="Y16" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="Z16" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AA16" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="AB16" s="2">
+      <c r="AB16" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AC16" s="3" t="n">
         <v>58</v>
       </c>
+      <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3" t="n">
         <v>356</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3" t="n">
         <v>434</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3" t="n">
         <v>473</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3" t="n">
         <v>441</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3" t="n">
         <v>377</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3" t="n">
         <v>334</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="3" t="n">
         <v>325</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="3" t="n">
         <v>333</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="3" t="n">
         <v>306</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="3" t="n">
         <v>343</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="3" t="n">
         <v>455</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="3" t="n">
         <v>429</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="3" t="n">
         <v>406</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="3" t="n">
         <v>364</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="3" t="n">
         <v>338</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="3" t="n">
         <v>336</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="3" t="n">
         <v>385</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="3" t="n">
         <v>354</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17" s="3" t="n">
         <v>282</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17" s="3" t="n">
         <v>310</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V17" s="3" t="n">
         <v>256</v>
       </c>
-      <c r="W17" s="2">
+      <c r="W17" s="3" t="n">
         <v>218</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X17" s="3" t="n">
         <v>220</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Y17" s="3" t="n">
         <v>212</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="Z17" s="3" t="n">
         <v>199</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AA17" s="3" t="n">
         <v>212</v>
       </c>
-      <c r="AB17" s="2">
+      <c r="AB17" s="3" t="n">
         <v>243</v>
       </c>
-      <c r="AC17" s="2">
+      <c r="AC17" s="3" t="n">
         <v>216</v>
       </c>
+      <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3" t="n">
         <v>6658</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3" t="n">
         <v>5084</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3" t="n">
         <v>3990</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3" t="n">
         <v>3416</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3" t="n">
         <v>2567</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3" t="n">
         <v>1802</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3" t="n">
         <v>1518</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="3" t="n">
         <v>1435</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="3" t="n">
         <v>1392</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="3" t="n">
         <v>1490</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="3" t="n">
         <v>1540</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="3" t="n">
         <v>1833</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="3" t="n">
         <v>1819</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="3" t="n">
         <v>1752</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="3" t="n">
         <v>1639</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="3" t="n">
         <v>1669</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="3" t="n">
         <v>2139</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="3" t="n">
         <v>2492</v>
       </c>
-      <c r="T18" s="2">
+      <c r="T18" s="3" t="n">
         <v>2622</v>
       </c>
-      <c r="U18" s="2">
+      <c r="U18" s="3" t="n">
         <v>3384</v>
       </c>
-      <c r="V18" s="2">
+      <c r="V18" s="3" t="n">
         <v>4689</v>
       </c>
-      <c r="W18" s="2">
+      <c r="W18" s="3" t="n">
         <v>6852</v>
       </c>
-      <c r="X18" s="2">
+      <c r="X18" s="3" t="n">
         <v>9104</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="Y18" s="3" t="n">
         <v>8058</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="Z18" s="3" t="n">
         <v>7281</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AA18" s="3" t="n">
         <v>6104</v>
       </c>
-      <c r="AB18" s="2">
+      <c r="AB18" s="3" t="n">
         <v>5498</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AC18" s="3" t="n">
         <v>5847</v>
       </c>
+      <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3" t="n">
         <v>68</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3" t="n">
         <v>59</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="3" t="n">
         <v>66</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="V19" s="2">
+      <c r="V19" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="W19" s="2">
+      <c r="W19" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X19" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="Y19" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="Z19" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AA19" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AB19" s="2">
+      <c r="AB19" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AC19" s="3" t="n">
         <v>35</v>
       </c>
+      <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3" t="n">
         <v>106</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3" t="n">
         <v>121</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3" t="n">
         <v>85</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3" t="n">
         <v>106</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3" t="n">
         <v>92</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="3" t="n">
         <v>114</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="3" t="n">
         <v>129</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="3" t="n">
         <v>107</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="3" t="n">
         <v>140</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="3" t="n">
         <v>178</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="3" t="n">
         <v>177</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="3" t="n">
         <v>191</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="3" t="n">
         <v>181</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="3" t="n">
         <v>149</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="3" t="n">
         <v>146</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="3" t="n">
         <v>158</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="3" t="n">
         <v>164</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="3" t="n">
         <v>173</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="3" t="n">
         <v>187</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="3" t="n">
         <v>159</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V20" s="3" t="n">
         <v>140</v>
       </c>
-      <c r="W20" s="2">
+      <c r="W20" s="3" t="n">
         <v>139</v>
       </c>
-      <c r="X20" s="2">
+      <c r="X20" s="3" t="n">
         <v>160</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Y20" s="3" t="n">
         <v>160</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="Z20" s="3" t="n">
         <v>142</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AA20" s="3" t="n">
         <v>139</v>
       </c>
-      <c r="AB20" s="2">
+      <c r="AB20" s="3" t="n">
         <v>155</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AC20" s="3" t="n">
         <v>174</v>
       </c>
+      <c r="AD20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>